--- a/biology/Médecine/Francis_Cohen_(médecin)/Francis_Cohen_(médecin).xlsx
+++ b/biology/Médecine/Francis_Cohen_(médecin)/Francis_Cohen_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francis_Cohen_(m%C3%A9decin)</t>
+          <t>Francis_Cohen_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Cohen est un écrivain et médecin français. Il exerce comme médecin généraliste à Asnières-sur-Seine et publie Journal d’un médecin de banlieue sous le pseudonyme de Francis Coven.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francis_Cohen_(m%C3%A9decin)</t>
+          <t>Francis_Cohen_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, ce livre obtient le prix Littré pour son ouvrage Journal d’un médecin de banlieue. Cet ouvrage a pour cadre une banlieue modeste : « là où la police ne va plus, le médecin, lui, continue d'aller ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francis_Cohen_(m%C3%A9decin)</t>
+          <t>Francis_Cohen_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Intérêt sociologique et médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce livre fournit le témoignage d'un professionnel. L'auteur plaide pour « des réformes urgentes en matière de santé publique » et pour « une médecine de proximité et de qualité dans les zones défavorisées et les banlieues ». C'est un hommage à la France des banlieues par un défenseur de la médecine de proximité. Ce livre a été vu aussi comme « un cri d'alarme pour réveiller les pouvoirs publics, dénoncer les dérives, prévenir le mal avant qu'il ne soit trop tard ».
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Francis_Cohen_(m%C3%A9decin)</t>
+          <t>Francis_Cohen_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Journal d’un médecin de banlieue, Éditions de la Martinière, Paris, 2003, avec Minou Azoulai.</t>
         </is>
